--- a/tmp/社員情報.xlsx
+++ b/tmp/社員情報.xlsx
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="2293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="2294">
   <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="3"/>
@@ -9677,7 +9677,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ICTG</t>
+    <t>TST1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TST</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -10959,7 +10963,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E235" sqref="E235"/>
+      <selection pane="bottomRight" activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22841,7 +22845,7 @@
         <v>2292</v>
       </c>
       <c r="E233" s="46" t="s">
-        <v>1416</v>
+        <v>2293</v>
       </c>
       <c r="F233" s="90" t="s">
         <v>2291</v>

--- a/tmp/社員情報.xlsx
+++ b/tmp/社員情報.xlsx
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="2294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3381" uniqueCount="2293">
   <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="3"/>
@@ -9673,15 +9673,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>test@dadway.com</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TST1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TST</t>
+    <t>testtesttesttesttest@dadway.com</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ICTG</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -10963,7 +10959,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A233" sqref="A233"/>
+      <selection pane="bottomRight" activeCell="E234" sqref="E234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22845,7 +22841,7 @@
         <v>2292</v>
       </c>
       <c r="E233" s="46" t="s">
-        <v>2293</v>
+        <v>2047</v>
       </c>
       <c r="F233" s="90" t="s">
         <v>2291</v>
@@ -22855,9 +22851,6 @@
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
-      <c r="P233" s="4">
-        <v>1</v>
-      </c>
       <c r="S233" s="4">
         <v>1</v>
       </c>

--- a/tmp/社員情報.xlsx
+++ b/tmp/社員情報.xlsx
@@ -8931,10 +8931,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>BYG</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>000693</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -9398,7 +9394,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>test@dadway.com</t>
+    <t>testtesttesttesttest@dadway.com</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BYGG</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -10674,10 +10674,10 @@
   <dimension ref="A1:AC313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="T211" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D208" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W224" sqref="W224"/>
+      <selection pane="bottomRight" activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10860,7 +10860,7 @@
         <v>1</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>549</v>
@@ -11009,7 +11009,7 @@
         <v>141</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>30</v>
@@ -11290,7 +11290,7 @@
     </row>
     <row r="12" spans="1:29" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>86</v>
@@ -11357,7 +11357,7 @@
     </row>
     <row r="13" spans="1:29" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>86</v>
@@ -12810,7 +12810,7 @@
     </row>
     <row r="40" spans="1:29" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B40" s="45" t="s">
         <v>216</v>
@@ -13307,10 +13307,10 @@
         <v>471</v>
       </c>
       <c r="AB48" s="73" t="s">
+        <v>2168</v>
+      </c>
+      <c r="AC48" s="73" t="s">
         <v>2169</v>
-      </c>
-      <c r="AC48" s="73" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="49" spans="1:29" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13609,10 +13609,10 @@
         <v>509</v>
       </c>
       <c r="AB54" s="78" t="s">
+        <v>2170</v>
+      </c>
+      <c r="AC54" s="78" t="s">
         <v>2171</v>
-      </c>
-      <c r="AC54" s="78" t="s">
-        <v>2172</v>
       </c>
     </row>
     <row r="55" spans="1:29" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14116,7 +14116,7 @@
         <v>1503</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C65" s="30" t="s">
         <v>836</v>
@@ -15298,7 +15298,7 @@
         <v>2078</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>1656</v>
@@ -16063,7 +16063,7 @@
         <v>2044</v>
       </c>
       <c r="F101" s="67" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="G101" s="18"/>
       <c r="H101" s="18" t="s">
@@ -16079,7 +16079,7 @@
         <v>1736</v>
       </c>
       <c r="Y101" s="10" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="AB101" s="4" t="str">
         <f>IFERROR(VLOOKUP($D101,部門!$A:$C,2,FALSE),"")</f>
@@ -16092,13 +16092,13 @@
     </row>
     <row r="102" spans="1:29" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="23" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B102" s="18" t="s">
         <v>2150</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="C102" s="18" t="s">
         <v>2151</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>2152</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>2042</v>
@@ -16107,23 +16107,23 @@
         <v>2044</v>
       </c>
       <c r="F102" s="67" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="G102" s="18"/>
       <c r="H102" s="18" t="s">
+        <v>2153</v>
+      </c>
+      <c r="I102" s="18" t="s">
         <v>2154</v>
       </c>
-      <c r="I102" s="18" t="s">
+      <c r="J102" s="18" t="s">
         <v>2155</v>
       </c>
-      <c r="J102" s="18" t="s">
+      <c r="K102" s="18" t="s">
         <v>2156</v>
       </c>
-      <c r="K102" s="18" t="s">
+      <c r="Y102" s="10" t="s">
         <v>2157</v>
-      </c>
-      <c r="Y102" s="10" t="s">
-        <v>2158</v>
       </c>
       <c r="AB102" s="4" t="str">
         <f>IFERROR(VLOOKUP($D102,部門!$A:$C,2,FALSE),"")</f>
@@ -16151,7 +16151,7 @@
         <v>2044</v>
       </c>
       <c r="F103" s="89" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2" t="s">
@@ -16387,7 +16387,7 @@
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>1313</v>
@@ -16761,7 +16761,7 @@
         <v>2041</v>
       </c>
       <c r="M115" s="34" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="N115" s="2"/>
       <c r="V115" s="4">
@@ -17070,7 +17070,7 @@
         <v>143</v>
       </c>
       <c r="L121" s="43" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -17248,7 +17248,7 @@
         <v>407</v>
       </c>
       <c r="D125" s="46" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="E125" s="47" t="s">
         <v>2094</v>
@@ -17270,7 +17270,7 @@
         <v>408</v>
       </c>
       <c r="L125" s="18" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="M125" s="18"/>
       <c r="N125" s="18"/>
@@ -17287,10 +17287,10 @@
         <v>576</v>
       </c>
       <c r="AB125" s="4" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AC125" s="4" t="s">
         <v>2167</v>
-      </c>
-      <c r="AC125" s="4" t="s">
-        <v>2168</v>
       </c>
     </row>
     <row r="126" spans="1:29" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -17342,7 +17342,7 @@
     </row>
     <row r="127" spans="1:29" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="55" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B127" s="46" t="s">
         <v>321</v>
@@ -17521,13 +17521,13 @@
     </row>
     <row r="131" spans="1:29" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="88" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B131" s="18" t="s">
         <v>2130</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="C131" s="18" t="s">
         <v>2131</v>
-      </c>
-      <c r="C131" s="18" t="s">
-        <v>2132</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>434</v>
@@ -17536,23 +17536,23 @@
         <v>435</v>
       </c>
       <c r="F131" s="89" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G131" s="18"/>
       <c r="H131" s="18" t="s">
+        <v>2133</v>
+      </c>
+      <c r="I131" s="18" t="s">
         <v>2134</v>
       </c>
-      <c r="I131" s="18" t="s">
+      <c r="J131" s="18" t="s">
+        <v>2136</v>
+      </c>
+      <c r="K131" s="18" t="s">
+        <v>2137</v>
+      </c>
+      <c r="Y131" s="10" t="s">
         <v>2135</v>
-      </c>
-      <c r="J131" s="18" t="s">
-        <v>2137</v>
-      </c>
-      <c r="K131" s="18" t="s">
-        <v>2138</v>
-      </c>
-      <c r="Y131" s="10" t="s">
-        <v>2136</v>
       </c>
       <c r="AB131" s="4" t="str">
         <f>IFERROR(VLOOKUP($D131,部門!$A:$C,2,FALSE),"")</f>
@@ -17565,13 +17565,13 @@
     </row>
     <row r="132" spans="1:29" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="88" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B132" s="18" t="s">
         <v>2139</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="C132" s="18" t="s">
         <v>2140</v>
-      </c>
-      <c r="C132" s="18" t="s">
-        <v>2141</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>434</v>
@@ -17580,23 +17580,23 @@
         <v>435</v>
       </c>
       <c r="F132" s="89" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="G132" s="18"/>
       <c r="H132" s="18" t="s">
+        <v>2143</v>
+      </c>
+      <c r="I132" s="18" t="s">
         <v>2144</v>
       </c>
-      <c r="I132" s="18" t="s">
+      <c r="J132" s="18" t="s">
         <v>2145</v>
       </c>
-      <c r="J132" s="18" t="s">
+      <c r="K132" s="18" t="s">
         <v>2146</v>
       </c>
-      <c r="K132" s="18" t="s">
-        <v>2147</v>
-      </c>
       <c r="Y132" s="10" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="AB132" s="4" t="str">
         <f>IFERROR(VLOOKUP($D132,部門!$A:$C,2,FALSE),"")</f>
@@ -17618,7 +17618,7 @@
         <v>41</v>
       </c>
       <c r="D133" s="46" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E133" s="46" t="s">
         <v>2094</v>
@@ -17664,7 +17664,7 @@
     </row>
     <row r="134" spans="1:29" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="23" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>1674</v>
@@ -17953,7 +17953,7 @@
     </row>
     <row r="140" spans="1:29" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="23" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B140" s="18" t="s">
         <v>1756</v>
@@ -18085,13 +18085,13 @@
     </row>
     <row r="143" spans="1:29" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="91" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B143" s="18" t="s">
         <v>2183</v>
       </c>
-      <c r="B143" s="18" t="s">
+      <c r="C143" s="18" t="s">
         <v>2184</v>
-      </c>
-      <c r="C143" s="18" t="s">
-        <v>2185</v>
       </c>
       <c r="D143" s="18" t="s">
         <v>1990</v>
@@ -18100,23 +18100,23 @@
         <v>435</v>
       </c>
       <c r="F143" s="89" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="G143" s="23"/>
       <c r="H143" s="18" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="I143" s="18" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J143" s="18" t="s">
         <v>2188</v>
       </c>
-      <c r="J143" s="18" t="s">
+      <c r="K143" s="18" t="s">
         <v>2189</v>
       </c>
-      <c r="K143" s="18" t="s">
+      <c r="Y143" s="10" t="s">
         <v>2190</v>
-      </c>
-      <c r="Y143" s="10" t="s">
-        <v>2191</v>
       </c>
       <c r="AB143" s="10" t="str">
         <f>IFERROR(VLOOKUP($D143,部門!$A:$C,2,FALSE),"")</f>
@@ -19563,13 +19563,13 @@
     </row>
     <row r="172" spans="1:29" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="55" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B172" s="46" t="s">
         <v>2114</v>
       </c>
-      <c r="B172" s="46" t="s">
+      <c r="C172" s="46" t="s">
         <v>2115</v>
-      </c>
-      <c r="C172" s="46" t="s">
-        <v>2116</v>
       </c>
       <c r="D172" s="46" t="s">
         <v>295</v>
@@ -19578,23 +19578,23 @@
         <v>656</v>
       </c>
       <c r="F172" s="67" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="G172" s="18"/>
       <c r="H172" s="18" t="s">
+        <v>2117</v>
+      </c>
+      <c r="I172" s="18" t="s">
         <v>2118</v>
       </c>
-      <c r="I172" s="18" t="s">
+      <c r="J172" s="18" t="s">
         <v>2119</v>
       </c>
-      <c r="J172" s="18" t="s">
+      <c r="K172" s="18" t="s">
+        <v>2121</v>
+      </c>
+      <c r="Y172" s="10" t="s">
         <v>2120</v>
-      </c>
-      <c r="K172" s="18" t="s">
-        <v>2122</v>
-      </c>
-      <c r="Y172" s="10" t="s">
-        <v>2121</v>
       </c>
       <c r="AB172" s="10" t="str">
         <f>IFERROR(VLOOKUP($D172,部門!$A:$C,2,FALSE),"")</f>
@@ -19654,13 +19654,13 @@
     </row>
     <row r="174" spans="1:29" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="55" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B174" s="94" t="s">
         <v>1756</v>
       </c>
       <c r="C174" s="94" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D174" s="46" t="s">
         <v>295</v>
@@ -19669,32 +19669,32 @@
         <v>1466</v>
       </c>
       <c r="F174" s="67" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2" t="s">
+        <v>2208</v>
+      </c>
+      <c r="I174" s="2" t="s">
         <v>2209</v>
       </c>
-      <c r="I174" s="2" t="s">
+      <c r="J174" s="2" t="s">
         <v>2210</v>
       </c>
-      <c r="J174" s="2" t="s">
+      <c r="K174" s="2" t="s">
         <v>2211</v>
-      </c>
-      <c r="K174" s="2" t="s">
-        <v>2212</v>
       </c>
       <c r="R174" s="4">
         <v>1</v>
       </c>
       <c r="Y174" s="4" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="AB174" s="4" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AC174" s="4" t="s">
         <v>2204</v>
-      </c>
-      <c r="AC174" s="4" t="s">
-        <v>2205</v>
       </c>
     </row>
     <row r="175" spans="1:29" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -20124,7 +20124,7 @@
         <v>1866</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="C184" s="18" t="s">
         <v>1867</v>
@@ -20961,7 +20961,7 @@
         <v>1325</v>
       </c>
       <c r="B200" s="45" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="C200" s="45" t="s">
         <v>1326</v>
@@ -21005,7 +21005,7 @@
         <v>1450</v>
       </c>
       <c r="B201" s="45" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C201" s="45" t="s">
         <v>1451</v>
@@ -21049,7 +21049,7 @@
         <v>577</v>
       </c>
       <c r="B202" s="46" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="C202" s="46" t="s">
         <v>407</v>
@@ -22012,7 +22012,7 @@
       </c>
       <c r="E221" s="46"/>
       <c r="F221" s="89" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="G221" s="2"/>
       <c r="H221" s="2" t="s">
@@ -22028,7 +22028,7 @@
         <v>1595</v>
       </c>
       <c r="Y221" s="4" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="AB221" s="4" t="s">
         <v>2101</v>
@@ -22052,11 +22052,11 @@
       </c>
       <c r="E222" s="46"/>
       <c r="F222" s="89" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="G222" s="2"/>
       <c r="H222" s="2" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="I222" s="2" t="s">
         <v>2100</v>
@@ -22068,7 +22068,7 @@
         <v>2099</v>
       </c>
       <c r="Y222" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="AB222" s="4" t="s">
         <v>2101</v>
@@ -22079,7 +22079,7 @@
     </row>
     <row r="223" spans="1:29" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="57" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B223" s="46" t="s">
         <v>2102</v>
@@ -22088,7 +22088,7 @@
         <v>2103</v>
       </c>
       <c r="D223" s="46" t="s">
-        <v>2109</v>
+        <v>2222</v>
       </c>
       <c r="E223" s="46" t="s">
         <v>1511</v>
@@ -22110,33 +22110,33 @@
         <v>2107</v>
       </c>
       <c r="Y223" s="4" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="AB223" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AC223" s="4" t="s">
         <v>2111</v>
-      </c>
-      <c r="AC223" s="4" t="s">
-        <v>2112</v>
       </c>
     </row>
     <row r="224" spans="1:29" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="57" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B224" s="46" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C224" s="46" t="s">
         <v>2215</v>
       </c>
-      <c r="C224" s="46" t="s">
-        <v>2216</v>
-      </c>
       <c r="D224" s="46" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="E224" s="46" t="s">
         <v>1987</v>
       </c>
       <c r="F224" s="89" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
@@ -22156,10 +22156,10 @@
         <v>1</v>
       </c>
       <c r="AB224" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AC224" s="4" t="s">
         <v>2111</v>
-      </c>
-      <c r="AC224" s="4" t="s">
-        <v>2112</v>
       </c>
     </row>
     <row r="225" spans="1:29" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22726,12 +22726,12 @@
     <row r="245" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="1"/>
       <c r="C245" s="31" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D245" s="31"/>
       <c r="E245" s="32"/>
       <c r="F245" s="93" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="G245" s="1"/>
       <c r="H245" s="2"/>
@@ -23461,10 +23461,10 @@
     </row>
     <row r="278" spans="1:29" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B278" s="10" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F278" s="67" t="s">
         <v>2173</v>
-      </c>
-      <c r="F278" s="67" t="s">
-        <v>2174</v>
       </c>
       <c r="H278" s="18"/>
       <c r="I278" s="18"/>
@@ -24114,7 +24114,7 @@
         <v>733</v>
       </c>
       <c r="Y300" s="10" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="AB300" s="4"/>
       <c r="AC300" s="4"/>
@@ -24122,25 +24122,25 @@
     <row r="301" spans="1:29" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="11"/>
       <c r="B301" s="10" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C301" s="10" t="s">
         <v>2192</v>
       </c>
-      <c r="C301" s="10" t="s">
-        <v>2193</v>
-      </c>
       <c r="F301" s="67" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="Q301" s="10" t="s">
         <v>733</v>
       </c>
       <c r="Y301" s="10" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="AB301" s="4"/>
       <c r="AC301" s="4"/>
@@ -24148,25 +24148,25 @@
     <row r="302" spans="1:29" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="11"/>
       <c r="B302" s="10" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C302" s="10" t="s">
         <v>2194</v>
       </c>
-      <c r="C302" s="10" t="s">
+      <c r="F302" s="67" t="s">
+        <v>2200</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I302" s="2" t="s">
         <v>2195</v>
-      </c>
-      <c r="F302" s="67" t="s">
-        <v>2201</v>
-      </c>
-      <c r="H302" s="2" t="s">
-        <v>2197</v>
-      </c>
-      <c r="I302" s="2" t="s">
-        <v>2196</v>
       </c>
       <c r="Q302" s="10" t="s">
         <v>733</v>
       </c>
       <c r="Y302" s="10" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="AB302" s="4"/>
       <c r="AC302" s="4"/>
